--- a/DCD_Response_Times.xlsx
+++ b/DCD_Response_Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Mode</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>QPSK 2400</t>
+  </si>
+  <si>
+    <t>s26</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +472,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="0">E3*1000/C3</f>
+        <f t="shared" ref="F3:F10" si="0">E3*1000/C3</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -621,7 +624,109 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="F11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F12" si="1">E11*1000/C11</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2400</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>9600</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <f>E13*1000/C13</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>4800</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F15" si="2">E14*1000/C14</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>88</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
